--- a/Tables/PAIR_ADONIS_PCO_biomass_bioreg.xlsx
+++ b/Tables/PAIR_ADONIS_PCO_biomass_bioreg.xlsx
@@ -166,13 +166,13 @@
         <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.537705921527105</v>
+        <v>2.655341483754701</v>
       </c>
       <c r="E2" t="n">
-        <v>11.54757105772804</v>
+        <v>11.261487360959372</v>
       </c>
       <c r="F2" t="n">
-        <v>0.10940631737903496</v>
+        <v>0.10698582780178503</v>
       </c>
       <c r="G2" t="n">
         <v>1.0E-4</v>
@@ -195,13 +195,13 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6737090802231087</v>
+        <v>3.7766184336060604</v>
       </c>
       <c r="E3" t="n">
-        <v>19.04576176587817</v>
+        <v>17.07731098594899</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3020942444411256</v>
+        <v>0.27960155269241754</v>
       </c>
       <c r="G3" t="n">
         <v>1.0E-4</v>
@@ -224,13 +224,13 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2728103006472584</v>
+        <v>2.415386042556059</v>
       </c>
       <c r="E4" t="n">
-        <v>12.658657334496402</v>
+        <v>12.682530365509892</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2834536031766963</v>
+        <v>0.2838364403663997</v>
       </c>
       <c r="G4" t="n">
         <v>1.0E-4</v>
@@ -253,13 +253,13 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.368865181981025</v>
+        <v>2.40895930679867</v>
       </c>
       <c r="E5" t="n">
-        <v>11.954272967819723</v>
+        <v>10.97313951670336</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09644099135592703</v>
+        <v>0.08923200269448178</v>
       </c>
       <c r="G5" t="n">
         <v>1.0E-4</v>
@@ -282,19 +282,19 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8683653515513521</v>
+        <v>0.9497513267881987</v>
       </c>
       <c r="E6" t="n">
-        <v>4.46406297857285</v>
+        <v>4.5330957394836995</v>
       </c>
       <c r="F6" t="n">
-        <v>0.042733001678179956</v>
+        <v>0.04336517260314411</v>
       </c>
       <c r="G6" t="n">
-        <v>5.0E-4</v>
+        <v>6.0E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003</v>
+        <v>0.0036</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -311,13 +311,13 @@
         <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.483604689037452</v>
+        <v>2.6326877789750918</v>
       </c>
       <c r="E7" t="n">
-        <v>17.053239493052732</v>
+        <v>15.454037717279641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2543238719259729</v>
+        <v>0.23610518550484821</v>
       </c>
       <c r="G7" t="n">
         <v>1.0E-4</v>

--- a/Tables/PAIR_ADONIS_PCO_biomass_bioreg.xlsx
+++ b/Tables/PAIR_ADONIS_PCO_biomass_bioreg.xlsx
@@ -425,13 +425,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.65122834282058</v>
+        <v>2.29992430780942</v>
       </c>
       <c r="D2" t="n">
-        <v>11.226116265278</v>
+        <v>12.1030995033794</v>
       </c>
       <c r="E2" t="n">
-        <v>0.106685646716986</v>
+        <v>0.114069236054635</v>
       </c>
       <c r="F2" t="n">
         <v>0.0001</v>
@@ -451,13 +451,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.77562636967644</v>
+        <v>3.41562886864834</v>
       </c>
       <c r="D3" t="n">
-        <v>17.0692940560832</v>
+        <v>22.4278797671216</v>
       </c>
       <c r="E3" t="n">
-        <v>0.279506981698651</v>
+        <v>0.33762751190837</v>
       </c>
       <c r="F3" t="n">
         <v>0.0001</v>
@@ -477,13 +477,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2.41601927888625</v>
+        <v>2.00159469135176</v>
       </c>
       <c r="D4" t="n">
-        <v>12.6864273111079</v>
+        <v>12.5313570240863</v>
       </c>
       <c r="E4" t="n">
-        <v>0.283898894462623</v>
+        <v>0.281405235805149</v>
       </c>
       <c r="F4" t="n">
         <v>0.0001</v>
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2.4126029179598</v>
+        <v>2.10542445744699</v>
       </c>
       <c r="D5" t="n">
-        <v>10.9734417321755</v>
+        <v>12.9404089404265</v>
       </c>
       <c r="E5" t="n">
-        <v>0.089234240967856</v>
+        <v>0.103572647553897</v>
       </c>
       <c r="F5" t="n">
         <v>0.0001</v>
@@ -529,19 +529,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.948616351549398</v>
+        <v>0.715366197432824</v>
       </c>
       <c r="D6" t="n">
-        <v>4.52029483103281</v>
+        <v>4.30091027820249</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0432480107173474</v>
+        <v>0.0412355967625848</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0018</v>
+        <v>0.003</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -555,13 +555,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.63124773287121</v>
+        <v>2.10312260265187</v>
       </c>
       <c r="D7" t="n">
-        <v>15.4440571583286</v>
+        <v>19.2198406390073</v>
       </c>
       <c r="E7" t="n">
-        <v>0.235988687574257</v>
+        <v>0.277663751629274</v>
       </c>
       <c r="F7" t="n">
         <v>0.0001</v>
